--- a/db/Clase_compartida.xlsx
+++ b/db/Clase_compartida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Posgrado\Proyecto Titulacion\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C77735-3E93-4E5D-8060-982B98468A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A35B18-6A8D-4616-A396-458C06ED7C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FFF5D47F-D24D-4A58-BAAA-F7A4CE49BDA3}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
